--- a/data/sample_data.xlsx
+++ b/data/sample_data.xlsx
@@ -43,7 +43,7 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>Shireesha</t>
+    <t>Madhavi</t>
   </si>
 </sst>
 </file>
